--- a/data/evaluation/evaluation_North_Spring_Grapefruits.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Grapefruits.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1693.411755952381</v>
+        <v>1700.477380952381</v>
       </c>
       <c r="C3" t="n">
-        <v>5969996.713877843</v>
+        <v>5996827.541612217</v>
       </c>
       <c r="D3" t="n">
-        <v>2443.357672113897</v>
+        <v>2448.842081803606</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2283858590635037</v>
+        <v>-0.2339065671904044</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1594.392455055325</v>
+        <v>1601.75631973081</v>
       </c>
       <c r="C4" t="n">
-        <v>4990653.864375388</v>
+        <v>5101303.293284303</v>
       </c>
       <c r="D4" t="n">
-        <v>2233.97714052212</v>
+        <v>2258.606493677972</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0268763834037844</v>
+        <v>-0.04964359757480774</v>
       </c>
     </row>
     <row r="5">
